--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC26\Downloads\numero_perfecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC11\Desktop\numero_perfecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3368C-57AB-493E-A1B5-7D116A03067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61104E62-D415-4ACC-96A1-AF8E6C9C76E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10D08866-6CD2-41EC-B18D-932FC966475A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{10D08866-6CD2-41EC-B18D-932FC966475A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$L$5:$L$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$N$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$N$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Columna1</t>
   </si>
@@ -88,12 +84,18 @@
   <si>
     <t>VALOR</t>
   </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +111,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,17 +149,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
@@ -507,6 +538,373 @@
       <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>PROMEDIO</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1331535460815826E-2"/>
+          <c:y val="0.11998111676641617"/>
+          <c:w val="0.88369588227701046"/>
+          <c:h val="0.78572998468478217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$I$4:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9454-4606-B4FD-54C5DBBE8F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1491164544"/>
+        <c:axId val="1491177024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1491164544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491177024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491177024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491164544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -550,7 +948,588 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1116,6 +2095,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C402080A-2BC6-4252-833B-D010FF4E8B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1441,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A27E87-0065-4572-8C68-D5D2BC28BD59}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:L11"/>
     </sheetView>
   </sheetViews>
@@ -1456,213 +2478,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
     <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>175800</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>166400</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>173000</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>164700</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>168700</v>
       </c>
-      <c r="L5" s="2" cm="1">
+      <c r="L5" s="1" cm="1">
         <f t="array" ref="L5">SUM(G5:K5/5)</f>
         <v>169720</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>178700</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>172800</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>180500</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>175600</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>174900</v>
       </c>
-      <c r="L6" s="2" cm="1">
+      <c r="L6" s="1" cm="1">
         <f t="array" ref="L6">SUM(G6:K6/5)</f>
         <v>176500</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>37</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>175900</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>173400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>167200</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>174600</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>166400</v>
       </c>
-      <c r="L7" s="2" cm="1">
+      <c r="L7" s="1" cm="1">
         <f t="array" ref="L7">SUM(G7:K7/5)</f>
         <v>171500</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>45</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>166200</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>169200</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>170000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>169600</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>174600</v>
       </c>
-      <c r="L8" s="2" cm="1">
+      <c r="L8" s="1" cm="1">
         <f t="array" ref="L8">SUM(G8:K8/5)</f>
         <v>169920</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>430</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>166900</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>165900</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>170200</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>165900</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>206300</v>
       </c>
-      <c r="L9" s="2" cm="1">
+      <c r="L9" s="1" cm="1">
         <f t="array" ref="L9">SUM(G9:K9/5)</f>
         <v>175040</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1006</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>169600</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>179600</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>164200</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>171600</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>169800</v>
       </c>
-      <c r="L10" s="2" cm="1">
+      <c r="L10" s="1" cm="1">
         <f t="array" ref="L10">SUM(G10:K10/5)</f>
         <v>170960</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>20140</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>173100</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>171700</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>175100</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>177000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>167800</v>
       </c>
-      <c r="L11" s="2" cm="1">
+      <c r="L11" s="1" cm="1">
         <f t="array" ref="L11">SUM(G11:K11/5)</f>
         <v>172940</v>
       </c>
@@ -1675,4 +2677,288 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E3917-F99C-4AC3-8920-42F2F600FFE7}">
+  <dimension ref="C2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(D4:H4)/5</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(D5:H5)/5</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I13" si="0">SUM(D6:H6)/5</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>160</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2">
+        <v>70</v>
+      </c>
+      <c r="G11" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>300</v>
+      </c>
+      <c r="D12" s="2">
+        <v>112</v>
+      </c>
+      <c r="E12" s="2">
+        <v>116</v>
+      </c>
+      <c r="F12" s="2">
+        <v>111</v>
+      </c>
+      <c r="G12" s="2">
+        <v>123</v>
+      </c>
+      <c r="H12" s="2">
+        <v>114</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>750</v>
+      </c>
+      <c r="D13" s="2">
+        <v>677</v>
+      </c>
+      <c r="E13" s="2">
+        <v>613</v>
+      </c>
+      <c r="F13" s="2">
+        <v>690</v>
+      </c>
+      <c r="G13" s="2">
+        <v>626</v>
+      </c>
+      <c r="H13" s="2">
+        <v>626</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>646.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>